--- a/biology/Médecine/Récepteur_opiacé/Récepteur_opiacé.xlsx
+++ b/biology/Médecine/Récepteur_opiacé/Récepteur_opiacé.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_opiac%C3%A9</t>
+          <t>Récepteur_opiacé</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les récepteurs opiacés sont des récepteurs de neurotransmetteurs.
 Il existe trois sortes de récepteurs opiacés : mu (μ), delta (δ) et kappa (κ) très largement distribués dans le cerveau. Ces récepteurs modulent plusieurs fonctions dont la réponse à la douleur, au stress et le contrôle des émotions.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_opiac%C3%A9</t>
+          <t>Récepteur_opiacé</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Principaux sous-types</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a quatre principaux sous-types de récepteurs opiacés.
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>R%C3%A9cepteur_opiac%C3%A9</t>
+          <t>Récepteur_opiacé</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Mécanismes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ces récepteurs sont des récepteurs couplés aux protéines G inhibiteurs. Lorsqu'un opioïde arrive sur le récepteur, la sous-unité α de la protéine G se décroche et va alors inhiber l'adénylate cyclase. Il y aura donc moins de production d'AMPc, moins d'activation de la PKA, moins de phosphorylation de CREB et donc moins de transcription des gènes cibles.
 Simultanément, les sous-unité βγ de la protéine G vont aller inhiber les récepteurs Ca2+voltage-dépendants.
